--- a/src/main/resources/185-RuoYi-Cloud/ruoyi-gateway_structure.xlsx
+++ b/src/main/resources/185-RuoYi-Cloud/ruoyi-gateway_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="198">
   <si>
     <t>类名</t>
   </si>
@@ -124,10 +124,10 @@
     <t>com.ruoyi.gateway.config.SwaggerProvider</t>
   </si>
   <si>
-    <t>lambda$get$3(org.springframework.cloud.gateway.route.RouteDefinition)</t>
-  </si>
-  <si>
-    <t>lambda$get$4(org.springframework.cloud.gateway.route.RouteDefinition)</t>
+    <t>lambda$get$3(org.springframework.cloud.gateway.route.RouteDefinition,org.springframework.cloud.gateway.handler.predicate.PredicateDefinition)</t>
+  </si>
+  <si>
+    <t>lambda$get$4(java.util.List,org.springframework.cloud.gateway.route.RouteDefinition,org.springframework.cloud.gateway.handler.predicate.PredicateDefinition)</t>
   </si>
   <si>
     <t>get()</t>
@@ -136,13 +136,13 @@
     <t>lambda$get$2(org.springframework.cloud.gateway.handler.predicate.PredicateDefinition)</t>
   </si>
   <si>
-    <t>lambda$get$0(org.springframework.cloud.gateway.route.Route)</t>
+    <t>lambda$get$0(java.util.List,org.springframework.cloud.gateway.route.Route)</t>
   </si>
   <si>
     <t>addResourceHandlers(org.springframework.web.reactive.config.ResourceHandlerRegistry)</t>
   </si>
   <si>
-    <t>lambda$get$1(org.springframework.cloud.gateway.route.RouteDefinition)</t>
+    <t>lambda$get$1(java.util.List,org.springframework.cloud.gateway.route.RouteDefinition)</t>
   </si>
   <si>
     <t>swaggerResource(java.lang.String,java.lang.String)</t>
@@ -151,7 +151,7 @@
     <t>springfox.documentation.swagger.web.SwaggerResource</t>
   </si>
   <si>
-    <t>lambda$get$5(org.springframework.cloud.gateway.route.RouteDefinition)</t>
+    <t>lambda$get$5(java.util.List,org.springframework.cloud.gateway.route.RouteDefinition)</t>
   </si>
   <si>
     <t>com.ruoyi.gateway.config.GatewayConfig</t>
@@ -229,7 +229,7 @@
     <t>getOrder()</t>
   </si>
   <si>
-    <t>filter(org.springframework.cloud.gateway.filter.GatewayFilterChain)</t>
+    <t>filter(org.springframework.web.server.ServerWebExchange,org.springframework.cloud.gateway.filter.GatewayFilterChain)</t>
   </si>
   <si>
     <t>isJsonRequest(org.springframework.web.server.ServerWebExchange)</t>
@@ -244,7 +244,7 @@
     <t>com.ruoyi.gateway.filter.CacheRequestFilter$CacheRequestGatewayFilter</t>
   </si>
   <si>
-    <t>lambda$filter$1(org.springframework.cloud.gateway.filter.GatewayFilterChain)</t>
+    <t>lambda$filter$1(org.springframework.web.server.ServerWebExchange,org.springframework.cloud.gateway.filter.GatewayFilterChain,java.lang.Byte[])</t>
   </si>
   <si>
     <t>lambda$filter$0(org.springframework.core.io.buffer.DataBuffer)</t>
@@ -295,7 +295,7 @@
     <t>lambda$resolveBodyFromRequest$1(java.util.concurrent.atomic.AtomicReference,org.springframework.core.io.buffer.DataBuffer)</t>
   </si>
   <si>
-    <t>lambda$apply$0(org.springframework.cloud.gateway.filter.GatewayFilterChain)</t>
+    <t>lambda$apply$0(org.springframework.web.server.ServerWebExchange,org.springframework.cloud.gateway.filter.GatewayFilterChain)</t>
   </si>
   <si>
     <t>resolveBodyFromRequest(org.springframework.http.server.reactive.ServerHttpRequest)</t>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>apply(com.ruoyi.gateway.filter.BlackListUrlFilter$Config)</t>
+  </si>
+  <si>
+    <t>lambda$apply$0(com.ruoyi.gateway.filter.BlackListUrlFilter$Config,org.springframework.web.server.ServerWebExchange,org.springframework.cloud.gateway.filter.GatewayFilterChain)</t>
   </si>
   <si>
     <t>com.ruoyi.gateway.filter.AuthFilter</t>
@@ -3410,7 +3413,7 @@
         <v>93</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -3421,7 +3424,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B200" t="s">
         <v>68</v>
@@ -3463,10 +3466,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B201" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -3477,7 +3480,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B202" t="s">
         <v>12</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B203" t="s">
         <v>69</v>
@@ -3505,7 +3508,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B204" t="s">
         <v>16</v>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
@@ -3533,10 +3536,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B206" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -3547,7 +3550,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B207" t="s">
         <v>21</v>
@@ -3561,7 +3564,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B208" t="s">
         <v>23</v>
@@ -3575,7 +3578,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
@@ -3589,10 +3592,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B210" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B211" t="s">
         <v>14</v>
@@ -3617,10 +3620,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B212" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -3631,10 +3634,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B213" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -3645,10 +3648,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B214" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -3659,7 +3662,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B215" t="s">
         <v>15</v>
@@ -3673,7 +3676,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B216" t="s">
         <v>18</v>
@@ -3687,7 +3690,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -3701,7 +3704,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
@@ -3715,38 +3718,38 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B219" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B220" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B221" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -3757,21 +3760,21 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B222" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B223" t="s">
         <v>21</v>
@@ -3785,10 +3788,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B224" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -3799,7 +3802,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B225" t="s">
         <v>15</v>
@@ -3813,63 +3816,63 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B226" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B227" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B228" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B229" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B230" t="s">
         <v>12</v>
@@ -3883,49 +3886,49 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B231" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B232" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B233" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
@@ -3939,7 +3942,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B235" t="s">
         <v>20</v>
@@ -3953,7 +3956,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B236" t="s">
         <v>23</v>
@@ -3967,21 +3970,21 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B237" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -3995,21 +3998,21 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B239" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B240" t="s">
         <v>14</v>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B241" t="s">
         <v>18</v>
@@ -4037,7 +4040,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -4051,7 +4054,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B243" t="s">
         <v>8</v>
@@ -4065,7 +4068,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B244" t="s">
         <v>68</v>
@@ -4079,7 +4082,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B245" t="s">
         <v>12</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B246" t="s">
         <v>16</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B247" t="s">
         <v>20</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B248" t="s">
         <v>21</v>
@@ -4135,7 +4138,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B249" t="s">
         <v>23</v>
@@ -4149,10 +4152,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B250" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -4163,7 +4166,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -4177,7 +4180,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B252" t="s">
         <v>14</v>
@@ -4191,7 +4194,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B253" t="s">
         <v>15</v>
@@ -4205,7 +4208,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B254" t="s">
         <v>18</v>
@@ -4219,7 +4222,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
@@ -4247,38 +4250,38 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B257" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
       </c>
       <c r="D257" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B258" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
       </c>
       <c r="D258" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B259" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
@@ -4289,21 +4292,21 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B260" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B261" t="s">
         <v>21</v>
@@ -4317,10 +4320,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B262" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B263" t="s">
         <v>15</v>
@@ -4345,63 +4348,63 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B264" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
       </c>
       <c r="D264" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B265" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B266" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
       </c>
       <c r="D266" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B267" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
       </c>
       <c r="D267" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B268" t="s">
         <v>12</v>
@@ -4415,63 +4418,63 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B269" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
       </c>
       <c r="D269" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B270" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B271" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B272" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
       </c>
       <c r="D272" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B273" t="s">
         <v>16</v>
@@ -4485,7 +4488,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B274" t="s">
         <v>20</v>
@@ -4499,7 +4502,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B275" t="s">
         <v>23</v>
@@ -4513,21 +4516,21 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B276" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
       </c>
       <c r="D276" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B277" t="s">
         <v>11</v>
@@ -4541,21 +4544,21 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B278" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B279" t="s">
         <v>14</v>
@@ -4569,7 +4572,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B280" t="s">
         <v>18</v>
@@ -4583,7 +4586,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -4597,7 +4600,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -4611,7 +4614,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B283" t="s">
         <v>12</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B284" t="s">
         <v>16</v>
@@ -4639,7 +4642,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B285" t="s">
         <v>20</v>
@@ -4653,7 +4656,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B286" t="s">
         <v>21</v>
@@ -4667,7 +4670,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B287" t="s">
         <v>23</v>
@@ -4681,10 +4684,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B288" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C288" t="s">
         <v>6</v>
@@ -4695,7 +4698,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B289" t="s">
         <v>11</v>
@@ -4709,7 +4712,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B290" t="s">
         <v>14</v>
@@ -4723,21 +4726,21 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B291" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
       </c>
       <c r="D291" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B292" t="s">
         <v>15</v>
@@ -4751,7 +4754,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B293" t="s">
         <v>18</v>
@@ -4765,7 +4768,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -4779,7 +4782,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B295" t="s">
         <v>8</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B296" t="s">
         <v>12</v>
@@ -4807,7 +4810,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B297" t="s">
         <v>16</v>
@@ -4821,7 +4824,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B298" t="s">
         <v>20</v>
@@ -4835,7 +4838,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B299" t="s">
         <v>21</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B300" t="s">
         <v>23</v>
@@ -4863,10 +4866,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B301" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -4877,7 +4880,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B302" t="s">
         <v>11</v>
@@ -4891,7 +4894,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B303" t="s">
         <v>14</v>
@@ -4905,21 +4908,21 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
+        <v>137</v>
+      </c>
+      <c r="B304" t="s">
+        <v>135</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
         <v>136</v>
-      </c>
-      <c r="B304" t="s">
-        <v>134</v>
-      </c>
-      <c r="C304" t="s">
-        <v>6</v>
-      </c>
-      <c r="D304" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B305" t="s">
         <v>15</v>
@@ -4933,7 +4936,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B306" t="s">
         <v>18</v>
@@ -4947,7 +4950,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -4961,7 +4964,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B308" t="s">
         <v>8</v>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B309" t="s">
         <v>11</v>
@@ -4989,7 +4992,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B310" t="s">
         <v>12</v>
@@ -5003,10 +5006,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B311" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -5017,7 +5020,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B312" t="s">
         <v>14</v>
@@ -5031,7 +5034,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B313" t="s">
         <v>15</v>
@@ -5045,7 +5048,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B314" t="s">
         <v>16</v>
@@ -5059,7 +5062,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B315" t="s">
         <v>18</v>
@@ -5073,7 +5076,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B316" t="s">
         <v>20</v>
@@ -5087,7 +5090,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B317" t="s">
         <v>21</v>
@@ -5101,7 +5104,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B318" t="s">
         <v>23</v>
@@ -5131,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
@@ -5145,13 +5148,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -5159,13 +5162,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -5173,7 +5176,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -5187,13 +5190,13 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -5201,13 +5204,13 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -5215,7 +5218,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -5229,7 +5232,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -5243,7 +5246,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -5257,7 +5260,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -5271,7 +5274,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -5285,13 +5288,13 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -5299,7 +5302,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -5313,7 +5316,7 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -5327,7 +5330,7 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -5341,7 +5344,7 @@
         <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -5355,13 +5358,13 @@
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -5369,13 +5372,13 @@
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -5383,7 +5386,7 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -5397,7 +5400,7 @@
         <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -5411,7 +5414,7 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -5422,24 +5425,24 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -5450,27 +5453,27 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
         <v>76</v>
@@ -5478,27 +5481,27 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" t="s">
         <v>169</v>
       </c>
-      <c r="C26" t="s">
-        <v>168</v>
-      </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
@@ -5506,10 +5509,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -5520,13 +5523,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
@@ -5534,52 +5537,52 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -5603,13 +5606,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -5617,10 +5620,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -5631,10 +5634,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -5645,10 +5648,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -5672,19 +5675,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -5695,13 +5698,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
@@ -5718,7 +5721,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -5735,7 +5738,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
@@ -5752,7 +5755,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -5769,7 +5772,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -5786,7 +5789,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
@@ -5803,7 +5806,7 @@
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -5820,7 +5823,7 @@
         <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
@@ -5831,13 +5834,13 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11">
@@ -5854,7 +5857,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
@@ -5871,7 +5874,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
@@ -5882,13 +5885,13 @@
         <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
@@ -5905,7 +5908,7 @@
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -5913,7 +5916,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
         <v>83</v>
@@ -5922,12 +5925,12 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -5939,100 +5942,100 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -6041,15 +6044,15 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -6058,7 +6061,7 @@
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6076,19 +6079,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6106,19 +6109,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6136,19 +6139,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" t="s">
-        <v>194</v>
-      </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6166,19 +6169,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6196,19 +6199,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
